--- a/USDATAX/TSLA.xlsx
+++ b/USDATAX/TSLA.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="87">
   <si>
     <t>Kalem</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>İşletme Faaliyetlerinden Nakit Akışları</t>
+  </si>
+  <si>
+    <t>FAVÖK</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM22"/>
+  <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3768,6 +3771,203 @@
       </c>
       <c r="BK22">
         <v>2156000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:65">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>-31362000</v>
+      </c>
+      <c r="F23">
+        <v>-37834000</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>-44246000</v>
+      </c>
+      <c r="I23">
+        <v>-54939000</v>
+      </c>
+      <c r="J23">
+        <v>-60777000</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>-84963000</v>
+      </c>
+      <c r="M23">
+        <v>-102475000</v>
+      </c>
+      <c r="N23">
+        <v>-101660000</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11816000</v>
+      </c>
+      <c r="Q23">
+        <v>8408000</v>
+      </c>
+      <c r="R23">
+        <v>-9354000</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>-15067000</v>
+      </c>
+      <c r="U23">
+        <v>7347000</v>
+      </c>
+      <c r="V23">
+        <v>1071000</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>-50346000</v>
+      </c>
+      <c r="Y23">
+        <v>-109388000</v>
+      </c>
+      <c r="Z23">
+        <v>-111862000</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>-149024000</v>
+      </c>
+      <c r="AC23">
+        <v>-126140000</v>
+      </c>
+      <c r="AD23">
+        <v>212422000</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>-97449000</v>
+      </c>
+      <c r="AG23">
+        <v>-64316000</v>
+      </c>
+      <c r="AH23">
+        <v>-337980000</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>-351774000</v>
+      </c>
+      <c r="AK23">
+        <v>-369592000</v>
+      </c>
+      <c r="AL23">
+        <v>716000000</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>-522000000</v>
+      </c>
+      <c r="AO23">
+        <v>-167000000</v>
+      </c>
+      <c r="AP23">
+        <v>261000000</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>283000000</v>
+      </c>
+      <c r="AS23">
+        <v>327000000</v>
+      </c>
+      <c r="AT23">
+        <v>809000000</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>594000000</v>
+      </c>
+      <c r="AW23">
+        <v>1312000000</v>
+      </c>
+      <c r="AX23">
+        <v>2004000000</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>3603000000</v>
+      </c>
+      <c r="BA23">
+        <v>2464000000</v>
+      </c>
+      <c r="BB23">
+        <v>3688000000</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>2664000000</v>
+      </c>
+      <c r="BE23">
+        <v>2399000000</v>
+      </c>
+      <c r="BF23">
+        <v>1764000000</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>1171000000</v>
+      </c>
+      <c r="BI23">
+        <v>1605000000</v>
+      </c>
+      <c r="BJ23">
+        <v>2717000000</v>
+      </c>
+      <c r="BK23">
+        <v>399000000</v>
+      </c>
+      <c r="BL23">
+        <v>923000000</v>
+      </c>
+      <c r="BM23">
+        <v>1624000000</v>
       </c>
     </row>
   </sheetData>
@@ -5583,7 +5783,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM9"/>
+  <dimension ref="A1:BM10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6973,6 +7173,203 @@
       </c>
       <c r="BM9">
         <v>28095000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-31362000</v>
+      </c>
+      <c r="F10">
+        <v>-37834000</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>-44246000</v>
+      </c>
+      <c r="I10">
+        <v>-54939000</v>
+      </c>
+      <c r="J10">
+        <v>-60777000</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>-84963000</v>
+      </c>
+      <c r="M10">
+        <v>-102475000</v>
+      </c>
+      <c r="N10">
+        <v>-101660000</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11816000</v>
+      </c>
+      <c r="Q10">
+        <v>8408000</v>
+      </c>
+      <c r="R10">
+        <v>-9354000</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>-15067000</v>
+      </c>
+      <c r="U10">
+        <v>7347000</v>
+      </c>
+      <c r="V10">
+        <v>1071000</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>-50346000</v>
+      </c>
+      <c r="Y10">
+        <v>-109388000</v>
+      </c>
+      <c r="Z10">
+        <v>-111862000</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>-149024000</v>
+      </c>
+      <c r="AC10">
+        <v>-126140000</v>
+      </c>
+      <c r="AD10">
+        <v>212422000</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>-97449000</v>
+      </c>
+      <c r="AG10">
+        <v>-64316000</v>
+      </c>
+      <c r="AH10">
+        <v>-337980000</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>-351774000</v>
+      </c>
+      <c r="AK10">
+        <v>-369592000</v>
+      </c>
+      <c r="AL10">
+        <v>716000000</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>-522000000</v>
+      </c>
+      <c r="AO10">
+        <v>-167000000</v>
+      </c>
+      <c r="AP10">
+        <v>261000000</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>283000000</v>
+      </c>
+      <c r="AS10">
+        <v>327000000</v>
+      </c>
+      <c r="AT10">
+        <v>809000000</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>594000000</v>
+      </c>
+      <c r="AW10">
+        <v>1312000000</v>
+      </c>
+      <c r="AX10">
+        <v>2004000000</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>3603000000</v>
+      </c>
+      <c r="BA10">
+        <v>2464000000</v>
+      </c>
+      <c r="BB10">
+        <v>3688000000</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>2664000000</v>
+      </c>
+      <c r="BE10">
+        <v>2399000000</v>
+      </c>
+      <c r="BF10">
+        <v>1764000000</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>1171000000</v>
+      </c>
+      <c r="BI10">
+        <v>1605000000</v>
+      </c>
+      <c r="BJ10">
+        <v>2717000000</v>
+      </c>
+      <c r="BK10">
+        <v>399000000</v>
+      </c>
+      <c r="BL10">
+        <v>923000000</v>
+      </c>
+      <c r="BM10">
+        <v>1624000000</v>
       </c>
     </row>
   </sheetData>
